--- a/data/trans_camb/Q45B_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/Q45B_R-Clase-trans_camb.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.638896810471663</v>
+        <v>-2.689326635983128</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.020511054803233</v>
+        <v>-4.977230519671501</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.549046374776848</v>
+        <v>-4.870309542061412</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-14.04861751284476</v>
+        <v>-13.77497694384335</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.241147887067687</v>
+        <v>-2.164940560456896</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-7.454551772402078</v>
+        <v>-7.508419182265379</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.948464829631443</v>
+        <v>2.651952167682586</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.8809458987714578</v>
+        <v>-0.9051002990100045</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.968634521909503</v>
+        <v>6.701617017942452</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-4.747009362789796</v>
+        <v>-4.51296123742061</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.470713849833921</v>
+        <v>3.164526464917366</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-2.875808574569934</v>
+        <v>-3.006795628647871</v>
       </c>
     </row>
     <row r="7">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.5551168723079373</v>
+        <v>-0.5677052582014553</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.9299662685764842</v>
+        <v>-0.9420161317496571</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2814395241069388</v>
+        <v>-0.3192175988475471</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.8243364349168562</v>
+        <v>-0.8311282991518938</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.257199744016983</v>
+        <v>-0.2412180018350296</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.8154794964246835</v>
+        <v>-0.8177721922146374</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.11657573015279</v>
+        <v>1.142119272809535</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.1998155937451817</v>
+        <v>-0.2855794162767697</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.6689920289076043</v>
+        <v>0.6216403301655038</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.4273375599591276</v>
+        <v>-0.4362644873305589</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5846251470352694</v>
+        <v>0.5286342083685437</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.4594038784118846</v>
+        <v>-0.4574086717153796</v>
       </c>
     </row>
     <row r="10">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.03161237195600264</v>
+        <v>-0.03123053831902805</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.671236901073261</v>
+        <v>-1.664983880248667</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-9.965585101244502</v>
+        <v>-9.515584136301175</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-19.18805110129633</v>
+        <v>-18.94623936548167</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-5.104212881971372</v>
+        <v>-5.26822044946326</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-10.08736864591535</v>
+        <v>-9.909590948033703</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.413914692617265</v>
+        <v>3.487535117907563</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.825519064908545</v>
+        <v>0.6048274196329095</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.018045570773791</v>
+        <v>1.471041232353386</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-9.961722079043653</v>
+        <v>-10.36814534865431</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8130223790522082</v>
+        <v>0.6656364293028377</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-5.132971210063045</v>
+        <v>-5.176118132437171</v>
       </c>
     </row>
     <row r="13">
@@ -873,20 +873,20 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2075730366347631</v>
+        <v>-0.3220112839616501</v>
       </c>
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="n">
-        <v>-0.4586465370331705</v>
+        <v>-0.4542729795238773</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.871415666571301</v>
+        <v>-0.8815060593059004</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4569838889038388</v>
+        <v>-0.4480576395308274</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.8606882518742198</v>
+        <v>-0.855382998260026</v>
       </c>
     </row>
     <row r="15">
@@ -897,20 +897,20 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>10.67634846076354</v>
+        <v>9.594081534645207</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>0.06890725857071821</v>
+        <v>0.09048925545322609</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.6199948844097398</v>
+        <v>-0.6171119306025764</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1013118147223155</v>
+        <v>0.08625737302178557</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.6011726718761885</v>
+        <v>-0.5917803219420605</v>
       </c>
     </row>
     <row r="16">
@@ -951,22 +951,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.367291731195229</v>
+        <v>-1.311426312139351</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.245976302131676</v>
+        <v>-3.279818615067712</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-6.595276928177711</v>
+        <v>-7.026698847366204</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-11.00640705380384</v>
+        <v>-10.67056468333588</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.207517072313874</v>
+        <v>-1.398230852587569</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-4.238412129014008</v>
+        <v>-4.121323587164154</v>
       </c>
     </row>
     <row r="18">
@@ -977,22 +977,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.27735370958903</v>
+        <v>2.154114985221215</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.172879078143038</v>
+        <v>-0.09271482115171195</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.638091587053672</v>
+        <v>5.403053678466421</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9583586499780932</v>
+        <v>0.7186291645452096</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.971418005404159</v>
+        <v>2.787600894197251</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-0.5751179660979113</v>
+        <v>-0.3107409088922827</v>
       </c>
     </row>
     <row r="19">
@@ -1029,22 +1029,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.4548474562565686</v>
+        <v>-0.446674803934408</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.9269159107386973</v>
+        <v>-0.920424663493841</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4489805648604972</v>
+        <v>-0.4715992467834667</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.7611665601848431</v>
+        <v>-0.7479812776291395</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2357796156041586</v>
+        <v>-0.2585759790798468</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.7462512028452926</v>
+        <v>-0.7465455277674251</v>
       </c>
     </row>
     <row r="21">
@@ -1055,22 +1055,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.665596767299413</v>
+        <v>1.689601861082851</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.09531249447243435</v>
+        <v>0.1556082628179313</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.7497211730951973</v>
+        <v>0.7000019013827389</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1832348060800274</v>
+        <v>0.1337215257400455</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.8704396922687402</v>
+        <v>0.8875759283352329</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.1378758326576483</v>
+        <v>-0.06442938790730024</v>
       </c>
     </row>
     <row r="22">
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.409282037020852</v>
+        <v>-0.3784560604025988</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.805574163892688</v>
+        <v>-1.827509056581883</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.847963493643704</v>
+        <v>-3.286701353125766</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-5.087481363584628</v>
+        <v>-5.125384568011414</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.710484584532171</v>
+        <v>-0.5110123751406314</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-2.272700862294589</v>
+        <v>-2.222649897824927</v>
       </c>
     </row>
     <row r="24">
@@ -1137,22 +1137,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.026478243498553</v>
+        <v>2.178961261712233</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.06621003753983765</v>
+        <v>0.1037983682352878</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.905222064092138</v>
+        <v>2.875654334777708</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.04687583976474775</v>
+        <v>0.175799722940138</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.005611390546462</v>
+        <v>1.958742197230267</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1509585055011907</v>
+        <v>0.0570111680235461</v>
       </c>
     </row>
     <row r="25">
@@ -1189,22 +1189,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1971588469839555</v>
+        <v>-0.1907393713368104</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.7564110121099253</v>
+        <v>-0.7522395063099531</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2923128570675668</v>
+        <v>-0.3272482544152917</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.5123191711822709</v>
+        <v>-0.5168476702589955</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1531129064053016</v>
+        <v>-0.1128321344862981</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.4865838981306375</v>
+        <v>-0.4744123254131439</v>
       </c>
     </row>
     <row r="27">
@@ -1215,22 +1215,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.686615012390546</v>
+        <v>1.687098552651436</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1726370025185991</v>
+        <v>0.154838374379173</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.4354214944295162</v>
+        <v>0.4304041817181351</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.01415877315340759</v>
+        <v>0.03057657399434793</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.5695414106585813</v>
+        <v>0.547344121082483</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.04449598049203385</v>
+        <v>0.01451141178186475</v>
       </c>
     </row>
     <row r="28">
@@ -1271,22 +1271,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.15240678277944</v>
+        <v>-3.244173110339329</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.874883367654578</v>
+        <v>-3.213444658781986</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-3.314253350002126</v>
+        <v>-3.50562933546153</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-4.660302875451255</v>
+        <v>-4.515532914789571</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-2.818700532175794</v>
+        <v>-2.752853449437794</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-3.439203186919689</v>
+        <v>-3.441650702119154</v>
       </c>
     </row>
     <row r="30">
@@ -1297,22 +1297,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.6954094593037269</v>
+        <v>0.7205623475400632</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.7142059939392299</v>
+        <v>0.5272870622289607</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.203483724501435</v>
+        <v>1.115402464772302</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-0.4424509000081146</v>
+        <v>-0.2331136893774468</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.3760694742122828</v>
+        <v>0.5753943950895986</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-0.4790103244417069</v>
+        <v>-0.3451168954364424</v>
       </c>
     </row>
     <row r="31">
@@ -1349,22 +1349,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.8450683186372094</v>
+        <v>-0.8819153830360534</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.8073825001014611</v>
+        <v>-0.8248401485146012</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.5637693829710195</v>
+        <v>-0.5614845746403636</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.7531509250532414</v>
+        <v>-0.7469202968891054</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.5685448301543125</v>
+        <v>-0.5732676073661872</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.7288032803177635</v>
+        <v>-0.7113559254443643</v>
       </c>
     </row>
     <row r="33">
@@ -1375,22 +1375,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.8483545584787359</v>
+        <v>0.9517721794683254</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.8381779762464847</v>
+        <v>0.6868469788535143</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.3658927783061559</v>
+        <v>0.3777245626145874</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>-0.09650579105890716</v>
+        <v>-0.04356167920148068</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1521486907589066</v>
+        <v>0.2177775600658249</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.1359204182694136</v>
+        <v>-0.1196366629827339</v>
       </c>
     </row>
     <row r="34">
@@ -1431,22 +1431,22 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-1.072900602685591</v>
+        <v>-0.9445667302719132</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-1.843590313204766</v>
+        <v>-2.048953182869837</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-1.065292401752863</v>
+        <v>-0.9221140812715557</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-3.622241276809094</v>
+        <v>-3.479965260243412</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-0.6271857775507762</v>
+        <v>-0.6007353211671449</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-3.106545227648004</v>
+        <v>-2.945739001604604</v>
       </c>
     </row>
     <row r="36">
@@ -1457,22 +1457,22 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>3.577569611736912</v>
+        <v>3.461073188648385</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>1.710581149747548</v>
+        <v>1.544103191742873</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2.334746868365841</v>
+        <v>2.308689662163568</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>-1.014206659375987</v>
+        <v>-0.6054553273875561</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>2.053701442976828</v>
+        <v>2.23481415491157</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-0.7471689940436446</v>
+        <v>-0.688572445176422</v>
       </c>
     </row>
     <row r="37">
@@ -1509,20 +1509,22 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.642788259960695</v>
-      </c>
-      <c r="D38" s="6" t="inlineStr"/>
+        <v>-0.62631971873432</v>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="E38" s="6" t="n">
-        <v>-0.2268003319461388</v>
+        <v>-0.2101112072210758</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.7456532717669208</v>
+        <v>-0.7439753314054346</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.1696524008130992</v>
+        <v>-0.153311155360144</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.7259538335720116</v>
+        <v>-0.7309933526144007</v>
       </c>
     </row>
     <row r="39">
@@ -1533,20 +1535,22 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>7.632041865364267</v>
-      </c>
-      <c r="D39" s="6" t="inlineStr"/>
+        <v>7.819053511347195</v>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>3.906307119048445</v>
+      </c>
       <c r="E39" s="6" t="n">
-        <v>0.7358089805939484</v>
+        <v>0.7084315496925752</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>-0.2593171522501049</v>
+        <v>-0.20352851617897</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.7540905586229378</v>
+        <v>0.7770043986094536</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.2309248487425413</v>
+        <v>-0.2372763800399146</v>
       </c>
     </row>
     <row r="40">
@@ -1587,22 +1591,22 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.2527286510978901</v>
+        <v>-0.3033019972645905</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-1.728994480050093</v>
+        <v>-1.694034752516146</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-1.715810297740035</v>
+        <v>-1.808393238121714</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-5.436507388777089</v>
+        <v>-5.361728309802443</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-0.7212340242959222</v>
+        <v>-0.6768429493906263</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-3.308721186734263</v>
+        <v>-3.310923399067605</v>
       </c>
     </row>
     <row r="42">
@@ -1613,22 +1617,22 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>1.307622052880449</v>
+        <v>1.24795875080727</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-0.482707030443395</v>
+        <v>-0.5515249525462811</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>0.8190012905006832</v>
+        <v>0.8149878162139353</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>-3.145266933304806</v>
+        <v>-3.154152289480741</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>0.7860290885032791</v>
+        <v>0.8945032637786964</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-2.058647194059549</v>
+        <v>-2.059532390268806</v>
       </c>
     </row>
     <row r="43">
@@ -1665,22 +1669,22 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.1198673935561589</v>
+        <v>-0.1281721108406403</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.712213812142683</v>
+        <v>-0.6988305917555205</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.2021785510563778</v>
+        <v>-0.2117357416577167</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.6358102726345185</v>
+        <v>-0.6316869634705938</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.134623699847012</v>
+        <v>-0.1248597133903984</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.6183236304905549</v>
+        <v>-0.6186459462238609</v>
       </c>
     </row>
     <row r="45">
@@ -1691,22 +1695,22 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.7824122148568681</v>
+        <v>0.7517379620214316</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.2864981722540612</v>
+        <v>-0.2831167762867217</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.1175762632860918</v>
+        <v>0.1130157987755421</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>-0.4360220398230581</v>
+        <v>-0.4434679302691045</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.1689023004801625</v>
+        <v>0.2011364412243357</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.4426534561329101</v>
+        <v>-0.4437995882810716</v>
       </c>
     </row>
     <row r="46">
